--- a/biology/Botanique/Limonium_diffusum/Limonium_diffusum.xlsx
+++ b/biology/Botanique/Limonium_diffusum/Limonium_diffusum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le (ou la) Statice diffus (Limonium diffusum (Pourr.) Kuntze) est une plante herbacée vivace de bord de mer de la famille des Plumbaginaceae (Plombaginacées).
 Synonyme
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante glabre de 10 à 35 cm de hauteur, à souche courte, écailleuse, courtement ramifiée et feuillée à l'extrémité des rameaux. Les feuilles ont 1 cm et sont caduques, linéaires, engainantes et disposées en rosettes. Les fleurs sont petites, solitaires disposées de part et d'autre des rameaux
 Période de floraison : juin à août.
@@ -545,7 +559,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Habitat type : sables humides limoneux et salés du littoral méditerranéen.
 Aire de répartition : endémique ibérico-française. En France elle ne se trouve qu'à proximité de l'étang de l'Ayrolle à Gruissan et à l'île Sainte-Lucie (Aude).</t>
@@ -576,7 +592,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Figure sur la Liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain.
 </t>
